--- a/Docs/DW Hardware Spec.xlsx
+++ b/Docs/DW Hardware Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416935A7-1668-46A8-A30A-9BFD792A1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5BCD6-FD35-48C2-8F23-F808F545E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Cores Required:</t>
   </si>
   <si>
-    <t>Processors:</t>
-  </si>
-  <si>
     <t>Memory Requirements</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>(allow for 3:1 compression of dimensional data, 10:1 compression of fact data)</t>
+  </si>
+  <si>
+    <t>Cores:</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <f>_xlfn.CEILING.MATH(B9,2)</f>
@@ -559,29 +559,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f>_xlfn.CEILING.MATH(B11*4,10)</f>
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <f>(B17*B18)/10^9</f>
@@ -606,7 +606,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <f>B19*0.1</f>
@@ -615,19 +615,19 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <f>B19/10+B20/3</f>
         <v>1.3333333333333335E-5</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <f>SUM(B21:B25)</f>
@@ -660,7 +660,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <f>B21</f>
@@ -669,7 +669,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <f>B26+(B28*3)</f>
@@ -678,35 +678,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <f>B29*2</f>
         <v>20.000106666666667</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/DW Hardware Spec.xlsx
+++ b/Docs/DW Hardware Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5BCD6-FD35-48C2-8F23-F808F545E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76E7C5-F401-4F9C-80C1-622003E4F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1280</v>
+        <f>(B19+B20)*10^3</f>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,7 +546,7 @@
       </c>
       <c r="B9" s="2">
         <f>((B6/C3)*B7)/B8</f>
-        <v>2.1932772959750944</v>
+        <v>5.3852790749388477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +555,7 @@
       </c>
       <c r="B11">
         <f>_xlfn.CEILING.MATH(B9,2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,8 +568,8 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <f>_xlfn.CEILING.MATH(B11*4,10)</f>
-        <v>20</v>
+        <f>B11*4</f>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>

--- a/Docs/DW Hardware Spec.xlsx
+++ b/Docs/DW Hardware Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76E7C5-F401-4F9C-80C1-622003E4F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A233151A-530F-4981-AC2C-077D55D8C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>MCR Test Results</t>
   </si>
@@ -131,12 +131,18 @@
   </si>
   <si>
     <t>Cores:</t>
+  </si>
+  <si>
+    <t>Number of years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,10 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,27 +476,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -498,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8994</v>
       </c>
@@ -510,21 +519,21 @@
         <v>204.2605377906977</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>(B19+B20)*10^3</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <f>(B20+B21)*10^3</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -532,181 +541,193 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f>((B6/C3)*B7)/B8</f>
-        <v>5.3852790749388477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5693276999481136E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <f>_xlfn.CEILING.MATH(B9,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
         <f>B11*4</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <f>(B17*B18)/10^9</f>
+      <c r="B20" s="5">
+        <f>(B17*B19)/10^9</f>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <f>B19*0.1</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" s="5">
+        <f>B20*0.4</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <f>B19/10+B20/3</f>
-        <v>1.3333333333333335E-5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="5">
+        <f>B20/10+B21/3</f>
+        <v>2.3333333333333336E-5</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2">
-        <f>SUM(B21:B25)</f>
-        <v>10.000013333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B27" s="4">
+        <f>SUM(B22:B26)</f>
+        <v>10.000023333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
-        <f>B21</f>
-        <v>1.3333333333333335E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" s="3">
+        <f>B22</f>
+        <v>2.3333333333333336E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
-        <f>B26+(B28*3)</f>
-        <v>10.000053333333334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="3">
+        <f>B27+(B29*3)</f>
+        <v>10.000093333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2">
-        <f>B29*2</f>
-        <v>20.000106666666667</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="4">
+        <f>B30*2</f>
+        <v>20.000186666666664</v>
+      </c>
+      <c r="C31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31">
+      <c r="B32">
+        <f>_xlfn.CEILING.MATH(B31/128,4)</f>
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
     </row>
